--- a/Ultra Interior Ltd/struct.xlsx
+++ b/Ultra Interior Ltd/struct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Ultra Interior Ltd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B31285-013F-4616-BB92-51050454684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DC6180-62BD-439C-833C-910A453FF7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="585" windowWidth="26025" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="480" windowWidth="29625" windowHeight="19185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>resource</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Toolbox</t>
   </si>
   <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
     <t>Site Visit</t>
   </si>
   <si>
@@ -95,6 +89,30 @@
   </si>
   <si>
     <t>June</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>GIB Fix</t>
+  </si>
+  <si>
+    <t>GIB Stop</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>QA - Standard Wall Lining Checklist</t>
+  </si>
+  <si>
+    <t>QA - Stopping Checklist</t>
   </si>
 </sst>
 </file>
@@ -935,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,28 +1015,42 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1026,7 +1058,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1034,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1042,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1050,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1058,7 +1090,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1066,15 +1098,15 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>18</v>
+      <c r="F13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1082,15 +1114,15 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>17</v>
+      <c r="E15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1098,7 +1130,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1106,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1114,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1122,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1130,7 +1162,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1138,7 +1170,23 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
